--- a/配置文档/功能配置相关/相机.xlsx
+++ b/配置文档/功能配置相关/相机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="9780"/>
+    <workbookView windowWidth="20160" windowHeight="7665" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_CameraBase_相机基本数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="2">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="2">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="2">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
   <si>
     <t>该表只配置 地图生成用噪声种子
 数据不想填就写 #BASEVALUE</t>
@@ -245,9 +245,6 @@
     <t>常规作战地图相机</t>
   </si>
   <si>
-    <t>1|2</t>
-  </si>
-  <si>
     <t>(576,324)</t>
   </si>
   <si>
@@ -260,7 +257,7 @@
     <t>第一章大地图相机</t>
   </si>
   <si>
-    <t>5|6|7|8</t>
+    <t>2|3|4|5|6</t>
   </si>
   <si>
     <t>相机组件id</t>
@@ -382,42 +379,30 @@
     <t>(0,0)</t>
   </si>
   <si>
-    <t>作战地图_噪声编辑器</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>(1152,648)</t>
-  </si>
-  <si>
     <t>大地图_显示帧数</t>
   </si>
   <si>
-    <t>大地图_噪声编辑器</t>
+    <t>大地图_在线玩家列表</t>
+  </si>
+  <si>
+    <t>在线玩家列表</t>
+  </si>
+  <si>
+    <t>(160,400)</t>
+  </si>
+  <si>
+    <t>(5,120)</t>
+  </si>
+  <si>
+    <t>大地图_默认配置按钮</t>
+  </si>
+  <si>
+    <t>默认配置按钮</t>
   </si>
   <si>
     <t>(120,100)</t>
   </si>
   <si>
-    <t>大地图_在线玩家列表</t>
-  </si>
-  <si>
-    <t>在线玩家列表</t>
-  </si>
-  <si>
-    <t>(160,400)</t>
-  </si>
-  <si>
-    <t>(5,120)</t>
-  </si>
-  <si>
-    <t>大地图_默认配置按钮</t>
-  </si>
-  <si>
-    <t>默认配置按钮</t>
-  </si>
-  <si>
     <t>(400,520)</t>
   </si>
   <si>
@@ -445,12 +430,18 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -460,6 +451,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -496,6 +490,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -580,6 +580,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -598,6 +601,9 @@
     <t>语言id列表</t>
   </si>
   <si>
+    <t>1|2</t>
+  </si>
+  <si>
     <t>&lt;POINT&gt;</t>
   </si>
   <si>
@@ -607,6 +613,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -631,21 +640,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -665,6 +674,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -1448,12 +1466,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1714,7 +1733,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1972,11 +1991,11 @@
       <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="F5" s="7" t="b">
         <v>1</v>
@@ -1985,7 +2004,7 @@
         <v>1000</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>1</v>
@@ -2000,7 +2019,7 @@
         <v>0.5</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7" t="b">
         <v>0</v>
@@ -2028,13 +2047,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="18" t="b">
         <v>1</v>
@@ -2043,7 +2062,7 @@
         <v>1000</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="18" t="b">
         <v>1</v>
@@ -2058,7 +2077,7 @@
         <v>0.5</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="18" t="b">
         <v>0</v>
@@ -2098,10 +2117,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2126,49 +2145,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="14.25" spans="1:16">
@@ -2226,49 +2245,49 @@
         <v>19</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" ht="14.25" spans="1:16">
@@ -2329,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -2338,40 +2357,40 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="21" customHeight="1" spans="1:16">
+    </row>
+    <row r="6" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2379,99 +2398,99 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A7" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="7">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="21" customHeight="1" spans="1:16">
+    </row>
+    <row r="8" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2482,96 +2501,96 @@
         <v>91</v>
       </c>
       <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="O8" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A9" s="7">
+        <v>93</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="20" customHeight="1" spans="1:16">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="7">
-        <v>51</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="P9" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2579,151 +2598,73 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>84</v>
-      </c>
       <c r="O10" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="20" customHeight="1" spans="1:16">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="18" customHeight="1" spans="1:16">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="14.25"/>
+    <row r="12" s="6" customFormat="1" ht="14.25"/>
     <row r="13" s="6" customFormat="1" ht="14.25"/>
-    <row r="14" s="6" customFormat="1" ht="14.25"/>
-    <row r="15" s="6" customFormat="1" ht="14.25"/>
+    <row r="14" s="6" customFormat="1" ht="14.25" spans="7:15">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="14.25" spans="7:15">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
     <row r="16" s="6" customFormat="1" ht="14.25" spans="7:15">
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2757,30 +2698,8 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" s="6" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="14.25"/>
-    <row r="22" s="6" customFormat="1" ht="14.25"/>
+    <row r="19" s="6" customFormat="1" ht="14.25"/>
+    <row r="20" s="6" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:P4">
@@ -2795,34 +2714,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="129.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2830,27 +2753,33 @@
         <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2858,27 +2787,33 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2886,55 +2821,65 @@
         <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2942,148 +2887,196 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3096,8 +3089,11 @@
       <c r="D26" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3105,41 +3101,50 @@
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>159</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3147,102 +3152,139 @@
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3">
+        <v>181</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>181</v>
+      <c r="B37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/功能配置相关/相机.xlsx
+++ b/配置文档/功能配置相关/相机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20160" windowHeight="7665" firstSheet="1"/>
+    <workbookView windowHeight="17655" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_CameraBase_相机基本数据" sheetId="1" r:id="rId1"/>
@@ -1339,14 +1339,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1733,7 +1730,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1757,351 +1754,351 @@
     <col min="18" max="18" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="57" spans="1:18">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" ht="57" spans="1:18">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:18">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2</v>
-      </c>
-      <c r="R2" s="5">
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:18">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:18">
+      <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" ht="32.25" spans="1:18">
-      <c r="A5" s="7">
+    <row r="5" s="6" customFormat="1" ht="32.25" spans="1:18">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="7" t="b">
+      <c r="F5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>1000</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="7" t="b">
+      <c r="I5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="7" t="b">
+      <c r="J5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
         <v>0.5</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="7" t="b">
+      <c r="N5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>50</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>1000</v>
       </c>
-      <c r="Q5" s="7" t="str">
+      <c r="Q5" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</f>
         <v>=DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</v>
       </c>
-      <c r="R5" s="7" t="str">
+      <c r="R5" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</f>
         <v>=DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</v>
       </c>
     </row>
-    <row r="6" s="18" customFormat="1" ht="32.25" spans="1:18">
-      <c r="A6" s="18">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    <row r="6" s="17" customFormat="1" ht="32.25" spans="1:18">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="18" t="b">
+      <c r="F6" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>50</v>
+      </c>
+      <c r="P6" s="17">
         <v>1000</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18">
-        <v>2</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
-        <v>50</v>
-      </c>
-      <c r="P6" s="18">
-        <v>1000</v>
-      </c>
-      <c r="Q6" s="18" t="str">
+      <c r="Q6" s="17" t="str">
         <f>_xlfn.DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</f>
         <v>=DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</v>
       </c>
-      <c r="R6" s="18" t="str">
+      <c r="R6" s="17" t="str">
         <f>_xlfn.DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</f>
         <v>=DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="14.25"/>
-    <row r="8" s="6" customFormat="1" ht="14.25"/>
-    <row r="9" s="6" customFormat="1" ht="14.25"/>
-    <row r="10" s="6" customFormat="1" ht="14.25"/>
-    <row r="11" s="6" customFormat="1" ht="14.25"/>
+    <row r="7" s="5" customFormat="1" ht="14.25"/>
+    <row r="8" s="5" customFormat="1" ht="14.25"/>
+    <row r="9" s="5" customFormat="1" ht="14.25"/>
+    <row r="10" s="5" customFormat="1" ht="14.25"/>
+    <row r="11" s="5" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:P4">
@@ -2140,566 +2137,566 @@
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="108" spans="1:16">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="3" customFormat="1" ht="108" spans="1:16">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:16">
+      <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A5" s="6">
+    <row r="5" s="5" customFormat="1" ht="19" customHeight="1" spans="1:16">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A6" s="6">
+    <row r="6" s="5" customFormat="1" ht="19" customHeight="1" spans="1:16">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="F6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A7" s="7">
+    <row r="7" s="6" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>51</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="17" t="s">
+      <c r="I7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A8" s="6">
+    <row r="8" s="5" customFormat="1" ht="19" customHeight="1" spans="1:16">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="17" t="s">
+      <c r="I8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="20" customHeight="1" spans="1:16">
-      <c r="A9" s="6">
+    <row r="9" s="5" customFormat="1" ht="20" customHeight="1" spans="1:16">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="17" t="s">
+      <c r="I9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="18" customHeight="1" spans="1:16">
-      <c r="A10" s="6">
+    <row r="10" s="5" customFormat="1" ht="18" customHeight="1" spans="1:16">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="17" t="s">
+      <c r="I10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="14.25"/>
-    <row r="12" s="6" customFormat="1" ht="14.25"/>
-    <row r="13" s="6" customFormat="1" ht="14.25"/>
-    <row r="14" s="6" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="14.25"/>
-    <row r="20" s="6" customFormat="1" ht="14.25"/>
+    <row r="11" s="5" customFormat="1" ht="14.25"/>
+    <row r="12" s="5" customFormat="1" ht="14.25"/>
+    <row r="13" s="5" customFormat="1" ht="14.25"/>
+    <row r="14" s="5" customFormat="1" ht="14.25" spans="7:15">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="14.25" spans="7:15">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="14.25" spans="7:15">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="14.25" spans="7:15">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="14.25" spans="7:15">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="14.25"/>
+    <row r="20" s="5" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:P4">
@@ -3271,19 +3268,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>187</v>
       </c>
     </row>

--- a/配置文档/功能配置相关/相机.xlsx
+++ b/配置文档/功能配置相关/相机.xlsx
@@ -8,13 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="cfg_CameraBase_相机基本数据" sheetId="1" r:id="rId1"/>
-    <sheet name="cfg_CameraAssemblyBase_相机组件表" sheetId="3" r:id="rId2"/>
-    <sheet name="数据类型" sheetId="2" r:id="rId3"/>
+    <sheet name="数据类型" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="2">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="2">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
   <si>
     <t>该表只配置 地图生成用噪声种子
 数据不想填就写 #BASEVALUE</t>
@@ -109,11 +108,6 @@
     <t>相机功能描述名称</t>
   </si>
   <si>
-    <t>相机组件id列表
-一些相机配件，如显示帧数
-噪声编辑器等</t>
-  </si>
-  <si>
     <t>相机初始位置
 (X,Y)</t>
   </si>
@@ -173,9 +167,6 @@
     <t>CameraDescribe</t>
   </si>
   <si>
-    <t>AssemblyIdList</t>
-  </si>
-  <si>
     <t>StartPos</t>
   </si>
   <si>
@@ -227,366 +218,202 @@
     <t>STR</t>
   </si>
   <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>常规作战地图相机</t>
+  </si>
+  <si>
+    <t>(576,324)</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
+  </si>
+  <si>
+    <t>(0.05,0.05)</t>
+  </si>
+  <si>
+    <t>第一章大地图相机</t>
+  </si>
+  <si>
+    <t>数据类型编号</t>
+  </si>
+  <si>
+    <t>数据类型名称</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>数据类型描述</t>
+  </si>
+  <si>
+    <t>数据类型示例</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
+  </si>
+  <si>
+    <t>True       False</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
+  </si>
+  <si>
+    <t>11112      -21232</t>
+  </si>
+  <si>
+    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
+  </si>
+  <si>
+    <t>1212312321</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
+  </si>
+  <si>
+    <t>52122122111111</t>
+  </si>
+  <si>
+    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
+  </si>
+  <si>
+    <t>554.1233  622125.1231</t>
+  </si>
+  <si>
+    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>&lt;BOOL&gt;</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
+  </si>
+  <si>
+    <t>True|True|False</t>
+  </si>
+  <si>
+    <t>&lt;SHORT&gt;</t>
+  </si>
+  <si>
+    <t>短整数列表，用于保存一个由短整数组成的列表</t>
+  </si>
+  <si>
+    <t>123|121|434|-121</t>
+  </si>
+  <si>
     <t>&lt;INT&gt;</t>
   </si>
   <si>
-    <t>POINT</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>常规作战地图相机</t>
-  </si>
-  <si>
-    <t>(576,324)</t>
-  </si>
-  <si>
-    <t>(1,1)</t>
-  </si>
-  <si>
-    <t>(0.05,0.05)</t>
-  </si>
-  <si>
-    <t>第一章大地图相机</t>
-  </si>
-  <si>
-    <t>2|3|4|5|6</t>
-  </si>
-  <si>
-    <t>相机组件id</t>
-  </si>
-  <si>
-    <t>相机组件描述</t>
-  </si>
-  <si>
-    <t>组件类型1
-0 显示帧数
-1 噪声编辑器 有一个就够了
-2 图片组 ParamPosLIst是后面图片的坐标
-3 打开某界面的按钮 有具体类型2（具体某按钮），组件参数1表示 cfg_ViewBase_界面基础配置表的ViewId 
-51 在线玩家列表</t>
-  </si>
-  <si>
-    <t>组件具体类型2
-1 默认配置按钮 
-2 科技树按钮
-3 数据库按钮
-4 返回存档界面的按钮</t>
-  </si>
-  <si>
-    <t>组件参数1
-当组件类型1为3 常规按钮时，
-表示打开某界面，这个参数表示界面id</t>
-  </si>
-  <si>
-    <t>组件参数2</t>
-  </si>
-  <si>
-    <t>组件参数1_字符串</t>
-  </si>
-  <si>
-    <t>组件参数_图片坐标列表</t>
-  </si>
-  <si>
-    <t>组件参数_图片1</t>
-  </si>
-  <si>
-    <t>组件参数_图片2</t>
-  </si>
-  <si>
-    <t>组件参数_图片3</t>
-  </si>
-  <si>
-    <t>组件参数_图片4</t>
-  </si>
-  <si>
-    <t>组件是否
-默认显示</t>
-  </si>
-  <si>
-    <t>组件大小
-(横轴长度，纵轴长度)</t>
-  </si>
-  <si>
-    <t>组件位置
-(横轴X，纵轴Y)</t>
-  </si>
-  <si>
-    <t>AssemblyId</t>
-  </si>
-  <si>
-    <t>AssemblyDescribe</t>
-  </si>
-  <si>
-    <t>Type1</t>
-  </si>
-  <si>
-    <t>Type2</t>
-  </si>
-  <si>
-    <t>Param1</t>
-  </si>
-  <si>
-    <t>Param2</t>
-  </si>
-  <si>
-    <t>ParamStr1</t>
-  </si>
-  <si>
-    <t>ParamPosLIst</t>
-  </si>
-  <si>
-    <t>ParamPng1</t>
-  </si>
-  <si>
-    <t>ParamPng2</t>
-  </si>
-  <si>
-    <t>ParamPng3</t>
-  </si>
-  <si>
-    <t>ParamPng4</t>
-  </si>
-  <si>
-    <t>IsDefineShow</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>作战地图_显示帧数</t>
-  </si>
-  <si>
-    <t>#BASEVALUE</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>(40,23)</t>
+    <t>整数列表，用于保存一个由整数组成的列表</t>
+  </si>
+  <si>
+    <t>2323232|1212|2343|545</t>
+  </si>
+  <si>
+    <t>&lt;LONG&gt;</t>
+  </si>
+  <si>
+    <t>长整数列表，用于保存一个由长整数组成的列表</t>
+  </si>
+  <si>
+    <t>52122122111111|1223434433</t>
+  </si>
+  <si>
+    <t>&lt;FLOAT&gt;</t>
+  </si>
+  <si>
+    <t>小数列表，用于保存一个由小数组成的列表</t>
+  </si>
+  <si>
+    <t>554.1233|12.12</t>
+  </si>
+  <si>
+    <t>&lt;STR&gt;</t>
+  </si>
+  <si>
+    <t>字符串列表</t>
+  </si>
+  <si>
+    <t>(BOOL)</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>(SHORT)</t>
+  </si>
+  <si>
+    <t>(INT)</t>
+  </si>
+  <si>
+    <t>(LONG)</t>
+  </si>
+  <si>
+    <t>(FLOAT)</t>
+  </si>
+  <si>
+    <t>(STR)</t>
+  </si>
+  <si>
+    <t>&lt;(BOOL)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(SHORT)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(LONG)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(FLOAT)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;(STR)&gt;</t>
+  </si>
+  <si>
+    <t>LANG</t>
+  </si>
+  <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
+    <t>语言id 是语言配置的id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>(0,0)</t>
-  </si>
-  <si>
-    <t>大地图_显示帧数</t>
-  </si>
-  <si>
-    <t>大地图_在线玩家列表</t>
-  </si>
-  <si>
-    <t>在线玩家列表</t>
-  </si>
-  <si>
-    <t>(160,400)</t>
-  </si>
-  <si>
-    <t>(5,120)</t>
-  </si>
-  <si>
-    <t>大地图_默认配置按钮</t>
-  </si>
-  <si>
-    <t>默认配置按钮</t>
-  </si>
-  <si>
-    <t>(120,100)</t>
-  </si>
-  <si>
-    <t>(400,520)</t>
-  </si>
-  <si>
-    <t>大地图_科技树按钮</t>
-  </si>
-  <si>
-    <t>科技树</t>
-  </si>
-  <si>
-    <t>(560,520)</t>
-  </si>
-  <si>
-    <t>大地图_数据库按钮</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>(720,520)</t>
-  </si>
-  <si>
-    <t>数据类型编号</t>
-  </si>
-  <si>
-    <t>数据类型名称</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>数据类型描述</t>
-  </si>
-  <si>
-    <t>数据类型示例</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>布尔值，用于表示 是或者否，True为是，False为否</t>
-  </si>
-  <si>
-    <t>True       False</t>
-  </si>
-  <si>
-    <t>SHORT</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
-  </si>
-  <si>
-    <t>11112      -21232</t>
-  </si>
-  <si>
-    <t>整数类型，适合在大多数时候用于保存配置id，-2147483648到2147483647</t>
-  </si>
-  <si>
-    <t>1212312321</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
-  <si>
-    <t>长整数类型，用于保存大的整数，-9223372036854775808到9223372036854775807</t>
-  </si>
-  <si>
-    <t>52122122111111</t>
-  </si>
-  <si>
-    <t>单精度浮点型，整数部分范围很大，小数部分，float的精度为6~7位有效数字，绝对能保证6位小数正常</t>
-  </si>
-  <si>
-    <t>554.1233  622125.1231</t>
-  </si>
-  <si>
-    <t>字符串，用于保存如介绍，描述等文本，通常不必担心长度</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>&lt;BOOL&gt;</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
-  </si>
-  <si>
-    <t>True|True|False</t>
-  </si>
-  <si>
-    <t>&lt;SHORT&gt;</t>
-  </si>
-  <si>
-    <t>短整数列表，用于保存一个由短整数组成的列表</t>
-  </si>
-  <si>
-    <t>123|121|434|-121</t>
-  </si>
-  <si>
-    <t>整数列表，用于保存一个由整数组成的列表</t>
-  </si>
-  <si>
-    <t>2323232|1212|2343|545</t>
-  </si>
-  <si>
-    <t>&lt;LONG&gt;</t>
-  </si>
-  <si>
-    <t>长整数列表，用于保存一个由长整数组成的列表</t>
-  </si>
-  <si>
-    <t>52122122111111|1223434433</t>
-  </si>
-  <si>
-    <t>&lt;FLOAT&gt;</t>
-  </si>
-  <si>
-    <t>小数列表，用于保存一个由小数组成的列表</t>
-  </si>
-  <si>
-    <t>554.1233|12.12</t>
-  </si>
-  <si>
-    <t>&lt;STR&gt;</t>
-  </si>
-  <si>
-    <t>字符串列表</t>
-  </si>
-  <si>
-    <t>(BOOL)</t>
-  </si>
-  <si>
-    <t>()</t>
-  </si>
-  <si>
-    <t>(SHORT)</t>
-  </si>
-  <si>
-    <t>(INT)</t>
-  </si>
-  <si>
-    <t>(LONG)</t>
-  </si>
-  <si>
-    <t>(FLOAT)</t>
-  </si>
-  <si>
-    <t>(STR)</t>
-  </si>
-  <si>
-    <t>&lt;(BOOL)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(SHORT)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(INT)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(LONG)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(FLOAT)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;(STR)&gt;</t>
-  </si>
-  <si>
-    <t>LANG</t>
-  </si>
-  <si>
-    <t>KeyBase</t>
-  </si>
-  <si>
-    <t>语言id 是语言配置的id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>保存小数二维坐标的类型</t>
@@ -877,7 +704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,12 +714,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,7 +1036,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1239,16 +1060,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1257,89 +1078,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,18 +1170,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1368,12 +1192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,19 +1203,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1725,12 +1531,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1738,83 +1544,79 @@
     <col min="1" max="1" width="38.3833333333333" customWidth="1"/>
     <col min="2" max="2" width="13.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="19.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="6" width="20.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.1333333333333" customWidth="1"/>
-    <col min="8" max="8" width="18.1333333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.1333333333333" customWidth="1"/>
-    <col min="10" max="10" width="11.6333333333333" customWidth="1"/>
-    <col min="11" max="11" width="25.75" customWidth="1"/>
-    <col min="12" max="12" width="26.8833333333333" customWidth="1"/>
-    <col min="13" max="13" width="19.25" customWidth="1"/>
-    <col min="14" max="14" width="33.25" customWidth="1"/>
-    <col min="15" max="15" width="24.1333333333333" customWidth="1"/>
-    <col min="16" max="16" width="25.8833333333333" customWidth="1"/>
-    <col min="17" max="17" width="21.3833333333333" customWidth="1"/>
-    <col min="18" max="18" width="27.75" customWidth="1"/>
+    <col min="4" max="5" width="20.1333333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="11" max="11" width="26.8833333333333" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="33.25" customWidth="1"/>
+    <col min="14" max="14" width="24.1333333333333" customWidth="1"/>
+    <col min="15" max="15" width="25.8833333333333" customWidth="1"/>
+    <col min="16" max="16" width="21.3833333333333" customWidth="1"/>
+    <col min="17" max="17" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="57" spans="1:18">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="57" spans="1:17">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:17">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="4">
@@ -1860,248 +1662,233 @@
         <v>2</v>
       </c>
       <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:17">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:17">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="32.25" spans="1:17">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <v>2</v>
       </c>
-      <c r="R2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="32.25" spans="1:18">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="K5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="M5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>50</v>
+      </c>
+      <c r="O5" s="5">
         <v>1000</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>50</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="Q5" s="6" t="str">
+      <c r="P5" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</f>
         <v>=DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</v>
       </c>
-      <c r="R5" s="6" t="str">
+      <c r="Q5" s="5" t="str">
         <f>_xlfn.DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</f>
         <v>=DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="32.25" spans="1:18">
-      <c r="A6" s="17">
+    <row r="6" s="6" customFormat="1" ht="32.25" spans="1:17">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
-        <v>2</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
-        <v>50</v>
-      </c>
-      <c r="P6" s="17">
+      <c r="O6" s="6">
         <v>1000</v>
       </c>
-      <c r="Q6" s="17" t="str">
+      <c r="P6" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</f>
         <v>=DISPIMG("ID_87836F31451A4C5290FF68B6A8435F6A",1)</v>
       </c>
-      <c r="R6" s="17" t="str">
+      <c r="Q6" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</f>
         <v>=DISPIMG("ID_FC934E97648E447FA4FDF25D5E6B8D50",1)</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="14.25"/>
-    <row r="8" s="5" customFormat="1" ht="14.25"/>
-    <row r="9" s="5" customFormat="1" ht="14.25"/>
-    <row r="10" s="5" customFormat="1" ht="14.25"/>
-    <row r="11" s="5" customFormat="1" ht="14.25"/>
+    <row r="7" s="7" customFormat="1" ht="14.25"/>
+    <row r="8" s="7" customFormat="1" ht="14.25"/>
+    <row r="9" s="7" customFormat="1" ht="14.25"/>
+    <row r="10" s="7" customFormat="1" ht="14.25"/>
+    <row r="11" s="7" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 D4:O4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2112,603 +1899,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P20"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="38.3833333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="64.55" customWidth="1"/>
-    <col min="5" max="5" width="31.6166666666667" customWidth="1"/>
-    <col min="6" max="6" width="27.9416666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="9" width="24.4083333333333" customWidth="1"/>
-    <col min="10" max="10" width="22.1333333333333" customWidth="1"/>
-    <col min="11" max="13" width="19.6333333333333" customWidth="1"/>
-    <col min="14" max="14" width="13.6333333333333" customWidth="1"/>
-    <col min="15" max="15" width="25.25" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="1" ht="108" spans="1:16">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
-        <v>2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="24" customHeight="1" spans="1:16">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="6">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="19" customHeight="1" spans="1:16">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="20" customHeight="1" spans="1:16">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="18" customHeight="1" spans="1:16">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6">
-        <v>3</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25"/>
-    <row r="12" s="5" customFormat="1" ht="14.25"/>
-    <row r="13" s="5" customFormat="1" ht="14.25"/>
-    <row r="14" s="5" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="14.25" spans="7:15">
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="14.25"/>
-    <row r="20" s="5" customFormat="1" ht="14.25"/>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:P4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
@@ -2727,19 +1917,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2747,16 +1937,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2764,16 +1954,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2781,16 +1971,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2798,16 +1988,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2815,16 +2005,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2832,14 +2022,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2847,16 +2037,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2864,16 +2054,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2881,16 +2071,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2898,16 +2088,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2915,16 +2105,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2932,13 +2122,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2946,10 +2136,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2957,10 +2147,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2968,10 +2158,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2979,10 +2169,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2990,10 +2180,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3001,10 +2191,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3012,10 +2202,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3023,10 +2213,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3034,10 +2224,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3045,10 +2235,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3056,10 +2246,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3067,10 +2257,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3078,16 +2268,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3095,16 +2285,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3112,16 +2302,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3129,16 +2319,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3146,13 +2336,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3160,16 +2350,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3177,16 +2367,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3194,16 +2384,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3211,16 +2401,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3228,16 +2418,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3245,14 +2435,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3260,11 +2450,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3272,16 +2462,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/功能配置相关/相机.xlsx
+++ b/配置文档/功能配置相关/相机.xlsx
@@ -1534,9 +1534,9 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="5">
         <v>0.5</v>
@@ -1858,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>45</v>
@@ -1888,7 +1888,7 @@
     <row r="11" s="7" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 D4:O4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:O4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
